--- a/5.GestionDotaciones/DAPRE/CDI-Apartadó/IngresoInventario/PlanAsignacionApartado.xlsx
+++ b/5.GestionDotaciones/DAPRE/CDI-Apartadó/IngresoInventario/PlanAsignacionApartado.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr checkCompatibility="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy James\Documents\GitHub\FID\Dotaciones\2018\DAPRE\IngresoInventario\APARTADO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\5.GestionDotaciones\DAPRE\CDI-Apartadó\IngresoInventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F673E32-D512-48F8-BEC9-8430DEED956B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URANIA" sheetId="1" r:id="rId1"/>
@@ -18,28 +19,403 @@
     <sheet name="MAKRO" sheetId="17" r:id="rId4"/>
     <sheet name="FALABELLA" sheetId="18" r:id="rId5"/>
     <sheet name="CENCOSUD" sheetId="19" r:id="rId6"/>
+    <sheet name="PROTELA" sheetId="20" r:id="rId7"/>
+    <sheet name="ESPUMAS SANTA FE" sheetId="21" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">URANIA!$A$1:$G$79</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="125">
-  <si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="130">
+  <si>
+    <t>F2.P7.SA</t>
+  </si>
+  <si>
+    <t>Página 1 de 1</t>
+  </si>
+  <si>
+    <t>Nombre del Cuentadante</t>
+  </si>
+  <si>
+    <t>Nit</t>
+  </si>
+  <si>
+    <t>Descripcion elemento</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vr. Unitario incluido IVA y demas Gastos </t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>FIRMA SUPERVISOR:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL URANIA </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ubicación </t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>PROCESO SERVICIOS ADMINISTRATIVOS</t>
+      <t xml:space="preserve">(área,grupo, oficina, etc.) </t>
+    </r>
+  </si>
+  <si>
+    <t>TOTAL DOTAESCOL</t>
+  </si>
+  <si>
+    <t>TOTAL ALKOSTO</t>
+  </si>
+  <si>
+    <t>JUEGO DE BALONES CANGURO</t>
+  </si>
+  <si>
+    <t>JUEGO DE BALONES EN ESPUMA</t>
+  </si>
+  <si>
+    <t>COLCHONETA DE TEXTURAS</t>
+  </si>
+  <si>
+    <t>CUBO DE ACTIVIDADES DE VESTIR</t>
+  </si>
+  <si>
+    <t>CUBO DE ACTIVIDADES MÚLTIPLES</t>
+  </si>
+  <si>
+    <t>GIMNASIO DE ESPUMA POLIMOTOR 1</t>
+  </si>
+  <si>
+    <t>KIT DE PERCEPCIÓN PEQUEÑO</t>
+  </si>
+  <si>
+    <t>MESA DE AGUA Y ARENA</t>
+  </si>
+  <si>
+    <t>PELOTA O BALÓN ORTOPÉDICO</t>
+  </si>
+  <si>
+    <t>JUEGO DE PELOTAS</t>
+  </si>
+  <si>
+    <t>JUEGO DE PELOTAS GRANDES TIPO ERIZO</t>
+  </si>
+  <si>
+    <t>JUEGO DE PELOTAS PEQUEÑAS TIPO ERIZO</t>
+  </si>
+  <si>
+    <t>RECIPIENTE PARA ENCAJAR FIGURAS</t>
+  </si>
+  <si>
+    <t>RODILLO GRANDE EN ESPUMA</t>
+  </si>
+  <si>
+    <t>RODILLO MEDIANO EN ESPUMA</t>
+  </si>
+  <si>
+    <t>SALTARÍN GRANDE</t>
+  </si>
+  <si>
+    <t>SALTARÍN PEQUEÑO</t>
+  </si>
+  <si>
+    <t>CAJA CHINA</t>
+  </si>
+  <si>
+    <t>CLAVES</t>
+  </si>
+  <si>
+    <t>PANDERETA</t>
+  </si>
+  <si>
+    <t>PAR DE SONAJEROS CASCABEL</t>
+  </si>
+  <si>
+    <t>TAMBOR</t>
+  </si>
+  <si>
+    <t>TRIÁNGULO</t>
+  </si>
+  <si>
+    <t>XILÓFONO</t>
+  </si>
+  <si>
+    <t>BLOQUES LÓGICOS FIGURAS GEOMÉTRICAS</t>
+  </si>
+  <si>
+    <t>TORRE DE ENSARTE</t>
+  </si>
+  <si>
+    <t>MARACAS PEQUEÑAS</t>
+  </si>
+  <si>
+    <t>CINTURÓN DE HERRAMIENTAS CON CASCO</t>
+  </si>
+  <si>
+    <t>JUEGO DE VAJILLA</t>
+  </si>
+  <si>
+    <t>KIT DE MÉDICO</t>
+  </si>
+  <si>
+    <t>MUÑECAS DE TRAPO DE VESTIR</t>
+  </si>
+  <si>
+    <t>SET DE MERCADO</t>
+  </si>
+  <si>
+    <t>TÍTERES DE GUANTE - SET FAMILIA</t>
+  </si>
+  <si>
+    <t>COMPILADO DVD MUSICAL  PARA NIÑOS Y NIÑAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPILADO MUSICAL PARA NIÑOS Y NIÑAS </t>
+  </si>
+  <si>
+    <t>JUEGO DE COCINA (ESTUFA, LAVAPLATOS Y NEVERA)</t>
+  </si>
+  <si>
+    <t>ANIMALES PARA ENHEBRAR</t>
+  </si>
+  <si>
+    <t>FIGURAS PARA ENHEBRAR</t>
+  </si>
+  <si>
+    <t>CAMIÓN BLOQUES DE CONTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>ROMPECABEZAS DE TRES NIVELES PROGRESIVOS</t>
+  </si>
+  <si>
+    <t>JUEGO DE GRANJA (CARRETILLA, BALDE, RASTRILLO, PALA Y REGADERA)</t>
+  </si>
+  <si>
+    <t>TÍTERES DE GUANTE - SET DE ETNIAS COLOMBIANAS</t>
+  </si>
+  <si>
+    <t>EQUIPO PSICOMOTOR</t>
+  </si>
+  <si>
+    <t>TEATRINO MODULAR DE PISO</t>
+  </si>
+  <si>
+    <t>JUEGO DE HABILIDAD 1</t>
+  </si>
+  <si>
+    <t>JUEGO DE HABILIDAD 2</t>
+  </si>
+  <si>
+    <t>BANDEJA DE PRISMAS RECTANGULARES PARA ENCAJAR</t>
+  </si>
+  <si>
+    <t>JUEGOS DE ARRASTRE</t>
+  </si>
+  <si>
+    <t>JUEGOS DE EMPUJE</t>
+  </si>
+  <si>
+    <t>CASA INFANTIL DE MUÑECAS</t>
+  </si>
+  <si>
+    <t>TABLERO DE CREACIÓN</t>
+  </si>
+  <si>
+    <t>GÜIRO PEQUEÑO</t>
+  </si>
+  <si>
+    <t>JUEGO DE MARACAS</t>
+  </si>
+  <si>
+    <t>MARACATAN</t>
+  </si>
+  <si>
+    <t>BLOQUES GRANDES DE CONSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>CABALLITO DE PALO</t>
+  </si>
+  <si>
+    <t>PALO DE LLUVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATAFORMA DE CONSTRUCCIÓN </t>
+  </si>
+  <si>
+    <t>ESPEJO CUERPO ENTERO</t>
+  </si>
+  <si>
+    <t>PANDERO</t>
+  </si>
+  <si>
+    <t>DISFRACES DE VESTIDO - PROFESIONES</t>
+  </si>
+  <si>
+    <t>JUEGO DE HABILIDAD 3</t>
+  </si>
+  <si>
+    <t>BLOQUES DE MADERA PEQUEÑOS</t>
+  </si>
+  <si>
+    <t>MESA DE PUESTO DE TRABAJO PREESCOLAR</t>
+  </si>
+  <si>
+    <t>SILLA DE PUESTO DE TRABAJO PREESCOLAR</t>
+  </si>
+  <si>
+    <t>SET DE PUNTO ECOLOGICO</t>
+  </si>
+  <si>
+    <t>SILLA CAFETERIA AUDITORIO</t>
+  </si>
+  <si>
+    <t>MUEBLE DE ALMACENAMIENTO BIBLIOTECA</t>
+  </si>
+  <si>
+    <t>ARCHIVADOR GRANDE</t>
+  </si>
+  <si>
+    <t>SILLA NEUMATICA</t>
+  </si>
+  <si>
+    <t>ESTANTE DE DEPOSITO</t>
+  </si>
+  <si>
+    <t>CUERPO CASILLERO DOCENTE ALMACENAMIENTO</t>
+  </si>
+  <si>
+    <t>VAJILLA DE 4 PUESTOS CERAMICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEVERA TIPO BAR </t>
+  </si>
+  <si>
+    <t>LICUADORA PEQUEÑA</t>
+  </si>
+  <si>
+    <t>ESTUFA ELECTRICA DE UN PUESTO</t>
+  </si>
+  <si>
+    <t>REPRODUCTOR DE AUDIO</t>
+  </si>
+  <si>
+    <t>REPRODUCTOR DE VIDEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENTILADOR DE PARED DE 3 VELOCIDADES </t>
+  </si>
+  <si>
+    <t>TELEVISOR</t>
+  </si>
+  <si>
+    <t>RALLADOR</t>
+  </si>
+  <si>
+    <t>MOLINILLO DE PLASTICO</t>
+  </si>
+  <si>
+    <t>MESA PLASTICA DE CUATRO CUPOS PARA ADULTOS</t>
+  </si>
+  <si>
+    <t>TOTAL MAKRO</t>
+  </si>
+  <si>
+    <t>OLLA A PRESIÓN DE 10 LITROS</t>
+  </si>
+  <si>
+    <t>BALDE PLÁSTICO GRANDE CON ESCURRIDOR 35 LITROS</t>
+  </si>
+  <si>
+    <t>BALDE PLÁSTICO CON ESCURRIDOR 12 LITROS</t>
+  </si>
+  <si>
+    <t>CANECA PLÁSTICA CON TAPA 120 LT</t>
+  </si>
+  <si>
+    <t>PONCHERA LAVANDERÍA</t>
+  </si>
+  <si>
+    <t>BALANZA PARA ALIMENTOS</t>
+  </si>
+  <si>
+    <t>CALDERO 25 LITROS</t>
+  </si>
+  <si>
+    <t>OLLA # 20 EN ALUMINIO</t>
+  </si>
+  <si>
+    <t>OLLAS # 32 EN ALUMINIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIBAS PLÁSTICAS </t>
+  </si>
+  <si>
+    <t>SILLAS CON BRAZOS PARA ADULTOS</t>
+  </si>
+  <si>
+    <t>JARRA PLÁSTICA</t>
+  </si>
+  <si>
+    <t>CUCHARA PARA SERVIR</t>
+  </si>
+  <si>
+    <t>NEVERA VERTICAL</t>
+  </si>
+  <si>
+    <t>SILLA COMEDOR PARA BEBÉ</t>
+  </si>
+  <si>
+    <t>TOTAL FALABELLA</t>
+  </si>
+  <si>
+    <t>TOTAL CENCOSUD</t>
+  </si>
+  <si>
+    <t>LAVADORA SECADORA</t>
+  </si>
+  <si>
+    <t>CUCHARA PARA POSTRE EN ACERO INOXIDABLE PARA NIÑOS PAQEUTE 12 UNIDADES</t>
+  </si>
+  <si>
+    <t>No. Convenio ó contrato ó resolución : 0361-2019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Punto de entrega:</t>
     </r>
     <r>
       <rPr>
@@ -49,52 +425,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> Carrera 74 No. 102 A-02</t>
+    </r>
+  </si>
+  <si>
+    <t>Carrera 74 No. 102 A-02</t>
+  </si>
+  <si>
+    <t>Corporación Proyecto de Empuje para la Colaboración y Ayuda Social PECAS</t>
+  </si>
+  <si>
+    <t>811033687-3</t>
+  </si>
+  <si>
+    <t>TOALLA PARA BEBE CON GORRO</t>
+  </si>
+  <si>
+    <t>TOTAL PROTELA</t>
+  </si>
+  <si>
+    <t>TOTAL ESPUMAS SANTA FE</t>
+  </si>
+  <si>
+    <t>COLCHONETA NORMAL D26</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PROCESO SERVICIOS ADMINISTRATIVOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color indexed="8"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t>FORMATO PLAN DE ASIGNACIÓN INDIVIDUAL</t>
     </r>
   </si>
   <si>
-    <t>F2.P7.SA</t>
-  </si>
-  <si>
-    <t>Versión 1</t>
-  </si>
-  <si>
-    <t>Página 1 de 1</t>
-  </si>
-  <si>
-    <t>CLASIFICACIÓN DE LA INFORMACIÓN:
-USO INTERNO</t>
-  </si>
-  <si>
-    <t>Nombre del Cuentadante</t>
-  </si>
-  <si>
-    <t>Nit</t>
-  </si>
-  <si>
-    <t>Descripcion elemento</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vr. Unitario incluido IVA y demas Gastos </t>
-  </si>
-  <si>
-    <t>Valor Total</t>
-  </si>
-  <si>
-    <t>FIRMA SUPERVISOR:</t>
+    <t>Versión 2</t>
+  </si>
+  <si>
+    <t>Clasificación de la información:
+PÚBLICA</t>
   </si>
   <si>
     <r>
@@ -119,49 +510,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="6"/>
         <color indexed="8"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">     Cualquier copia impresa de este documento se considera como COPIA NO CONTROLADA.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL URANIA </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ubicación </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(área,grupo, oficina, etc.) </t>
-    </r>
-  </si>
-  <si>
-    <t>TOTAL DOTAESCOL</t>
-  </si>
-  <si>
-    <t>TOTAL ALKOSTO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Supervisor ICBF:</t>
     </r>
     <r>
       <rPr>
@@ -171,380 +525,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Punto de entrega:</t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="6"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>LOS DATOS PROPORCIONADOS SERAN TRATADOS DE ACUERDO A LA POLITICA DE TRATAMIENTO DE DATOS PERSONALES DEL ICBF Y A LA LEY 1581 DE 2012</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Regional:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">No. Convenio ó contrato ó resolución : </t>
-  </si>
-  <si>
-    <t>Punto de entrega:</t>
-  </si>
-  <si>
-    <t>JUEGO DE BALONES CANGURO</t>
-  </si>
-  <si>
-    <t>JUEGO DE BALONES EN ESPUMA</t>
-  </si>
-  <si>
-    <t>COLCHONETA DE TEXTURAS</t>
-  </si>
-  <si>
-    <t>CUBO DE ACTIVIDADES DE VESTIR</t>
-  </si>
-  <si>
-    <t>CUBO DE ACTIVIDADES MÚLTIPLES</t>
-  </si>
-  <si>
-    <t>GIMNASIO DE ESPUMA POLIMOTOR 1</t>
-  </si>
-  <si>
-    <t>KIT DE PERCEPCIÓN PEQUEÑO</t>
-  </si>
-  <si>
-    <t>MESA DE AGUA Y ARENA</t>
-  </si>
-  <si>
-    <t>PELOTA O BALÓN ORTOPÉDICO</t>
-  </si>
-  <si>
-    <t>JUEGO DE PELOTAS</t>
-  </si>
-  <si>
-    <t>JUEGO DE PELOTAS GRANDES TIPO ERIZO</t>
-  </si>
-  <si>
-    <t>JUEGO DE PELOTAS PEQUEÑAS TIPO ERIZO</t>
-  </si>
-  <si>
-    <t>RECIPIENTE PARA ENCAJAR FIGURAS</t>
-  </si>
-  <si>
-    <t>RODILLO GRANDE EN ESPUMA</t>
-  </si>
-  <si>
-    <t>RODILLO MEDIANO EN ESPUMA</t>
-  </si>
-  <si>
-    <t>SALTARÍN GRANDE</t>
-  </si>
-  <si>
-    <t>SALTARÍN PEQUEÑO</t>
-  </si>
-  <si>
-    <t>CAJA CHINA</t>
-  </si>
-  <si>
-    <t>CLAVES</t>
-  </si>
-  <si>
-    <t>PANDERETA</t>
-  </si>
-  <si>
-    <t>PAR DE SONAJEROS CASCABEL</t>
-  </si>
-  <si>
-    <t>TAMBOR</t>
-  </si>
-  <si>
-    <t>TRIÁNGULO</t>
-  </si>
-  <si>
-    <t>XILÓFONO</t>
-  </si>
-  <si>
-    <t>BLOQUES LÓGICOS FIGURAS GEOMÉTRICAS</t>
-  </si>
-  <si>
-    <t>TORRE DE ENSARTE</t>
-  </si>
-  <si>
-    <t>MARACAS PEQUEÑAS</t>
-  </si>
-  <si>
-    <t>CINTURÓN DE HERRAMIENTAS CON CASCO</t>
-  </si>
-  <si>
-    <t>JUEGO DE VAJILLA</t>
-  </si>
-  <si>
-    <t>KIT DE MÉDICO</t>
-  </si>
-  <si>
-    <t>MUÑECAS DE TRAPO DE VESTIR</t>
-  </si>
-  <si>
-    <t>SET DE MERCADO</t>
-  </si>
-  <si>
-    <t>TÍTERES DE GUANTE - SET FAMILIA</t>
-  </si>
-  <si>
-    <t>COMPILADO DVD MUSICAL  PARA NIÑOS Y NIÑAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPILADO MUSICAL PARA NIÑOS Y NIÑAS </t>
-  </si>
-  <si>
-    <t>JUEGO DE COCINA (ESTUFA, LAVAPLATOS Y NEVERA)</t>
-  </si>
-  <si>
-    <t>ANIMALES PARA ENHEBRAR</t>
-  </si>
-  <si>
-    <t>FIGURAS PARA ENHEBRAR</t>
-  </si>
-  <si>
-    <t>CAMIÓN BLOQUES DE CONTRUCCIÓN</t>
-  </si>
-  <si>
-    <t>ROMPECABEZAS DE TRES NIVELES PROGRESIVOS</t>
-  </si>
-  <si>
-    <t>JUEGO DE GRANJA (CARRETILLA, BALDE, RASTRILLO, PALA Y REGADERA)</t>
-  </si>
-  <si>
-    <t>TÍTERES DE GUANTE - SET DE ETNIAS COLOMBIANAS</t>
-  </si>
-  <si>
-    <t>EQUIPO PSICOMOTOR</t>
-  </si>
-  <si>
-    <t>TEATRINO MODULAR DE PISO</t>
-  </si>
-  <si>
-    <t>JUEGO DE HABILIDAD 1</t>
-  </si>
-  <si>
-    <t>JUEGO DE HABILIDAD 2</t>
-  </si>
-  <si>
-    <t>BANDEJA DE PRISMAS RECTANGULARES PARA ENCAJAR</t>
-  </si>
-  <si>
-    <t>JUEGOS DE ARRASTRE</t>
-  </si>
-  <si>
-    <t>JUEGOS DE EMPUJE</t>
-  </si>
-  <si>
-    <t>CASA INFANTIL DE MUÑECAS</t>
-  </si>
-  <si>
-    <t>TABLERO DE CREACIÓN</t>
-  </si>
-  <si>
-    <t>GÜIRO PEQUEÑO</t>
-  </si>
-  <si>
-    <t>JUEGO DE MARACAS</t>
-  </si>
-  <si>
-    <t>MARACATAN</t>
-  </si>
-  <si>
-    <t>BLOQUES GRANDES DE CONSTRUCCIÓN</t>
-  </si>
-  <si>
-    <t>CABALLITO DE PALO</t>
-  </si>
-  <si>
-    <t>PALO DE LLUVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLATAFORMA DE CONSTRUCCIÓN </t>
-  </si>
-  <si>
-    <t>ESPEJO CUERPO ENTERO</t>
-  </si>
-  <si>
-    <t>PANDERO</t>
-  </si>
-  <si>
-    <t>DISFRACES DE VESTIDO - PROFESIONES</t>
-  </si>
-  <si>
-    <t>JUEGO DE HABILIDAD 3</t>
-  </si>
-  <si>
-    <t>BLOQUES DE MADERA PEQUEÑOS</t>
-  </si>
-  <si>
-    <t>MESA DE PUESTO DE TRABAJO PREESCOLAR</t>
-  </si>
-  <si>
-    <t>SILLA DE PUESTO DE TRABAJO PREESCOLAR</t>
-  </si>
-  <si>
-    <t>SET DE PUNTO ECOLOGICO</t>
-  </si>
-  <si>
-    <t>SILLA CAFETERIA AUDITORIO</t>
-  </si>
-  <si>
-    <t>MUEBLE DE ALMACENAMIENTO BIBLIOTECA</t>
-  </si>
-  <si>
-    <t>ARCHIVADOR GRANDE</t>
-  </si>
-  <si>
-    <t>SILLA NEUMATICA</t>
-  </si>
-  <si>
-    <t>ESTANTE DE DEPOSITO</t>
-  </si>
-  <si>
-    <t>CUERPO CASILLERO DOCENTE ALMACENAMIENTO</t>
-  </si>
-  <si>
-    <t>VAJILLA DE 4 PUESTOS CERAMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVERA TIPO BAR </t>
-  </si>
-  <si>
-    <t>LICUADORA PEQUEÑA</t>
-  </si>
-  <si>
-    <t>ESTUFA ELECTRICA DE UN PUESTO</t>
-  </si>
-  <si>
-    <t>REPRODUCTOR DE AUDIO</t>
-  </si>
-  <si>
-    <t>REPRODUCTOR DE VIDEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADOR DE PARED DE 3 VELOCIDADES </t>
-  </si>
-  <si>
-    <t>TELEVISOR</t>
-  </si>
-  <si>
-    <t>RALLADOR</t>
-  </si>
-  <si>
-    <t>MOLINILLO DE PLASTICO</t>
-  </si>
-  <si>
-    <t>MESA PLASTICA DE CUATRO CUPOS PARA ADULTOS</t>
-  </si>
-  <si>
-    <t>TOTAL MAKRO</t>
-  </si>
-  <si>
-    <t>OLLA A PRESIÓN DE 10 LITROS</t>
-  </si>
-  <si>
-    <t>BALDE PLÁSTICO GRANDE CON ESCURRIDOR 35 LITROS</t>
-  </si>
-  <si>
-    <t>BALDE PLÁSTICO CON ESCURRIDOR 12 LITROS</t>
-  </si>
-  <si>
-    <t>CANECA PLÁSTICA CON TAPA 120 LT</t>
-  </si>
-  <si>
-    <t>PONCHERA LAVANDERÍA</t>
-  </si>
-  <si>
-    <t>BALANZA PARA ALIMENTOS</t>
-  </si>
-  <si>
-    <t>CALDERO 25 LITROS</t>
-  </si>
-  <si>
-    <t>OLLA # 20 EN ALUMINIO</t>
-  </si>
-  <si>
-    <t>OLLAS # 32 EN ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTIBAS PLÁSTICAS </t>
-  </si>
-  <si>
-    <t>SILLAS CON BRAZOS PARA ADULTOS</t>
-  </si>
-  <si>
-    <t>JARRA PLÁSTICA</t>
-  </si>
-  <si>
-    <t>CUCHARA PARA SERVIR</t>
-  </si>
-  <si>
-    <t>NEVERA VERTICAL</t>
-  </si>
-  <si>
-    <t>SILLA COMEDOR PARA BEBÉ</t>
-  </si>
-  <si>
-    <t>TOTAL FALABELLA</t>
-  </si>
-  <si>
-    <t>TOTAL CENCOSUD</t>
-  </si>
-  <si>
-    <t>LAVADORA SECADORA</t>
-  </si>
-  <si>
-    <t>CUCHARA PARA POSTRE EN ACERO INOXIDABLE PARA NIÑOS PAQEUTE 12 UNIDADES</t>
+    <t>Objeto: Prestar el servicio Centros de Desarrollo Infantil-CDI, de conformidad con el manual operativo de la modalidad institucional y las directrices establecidas por el ICBF, en armonia con la politica de estado para el desarrollo integral  de la priemra infancia de cero a siempre.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,19 +576,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -595,16 +589,48 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="5"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -615,7 +641,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -838,12 +864,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -941,11 +976,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -956,14 +997,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -973,12 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -995,6 +1030,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,17 +1045,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1133,7 +1177,7 @@
         <xdr:cNvPr id="2" name="Imagen 22" descr="LOGO-ICBF">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885E46AD-AA05-4ED0-99AC-5E94EA6BE8AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1256,7 @@
         <xdr:cNvPr id="2" name="Imagen 22" descr="LOGO-ICBF">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838A34DC-DC54-45D2-83FF-3133273D30B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1291,7 +1335,7 @@
         <xdr:cNvPr id="2" name="Imagen 22" descr="LOGO-ICBF">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838A34DC-DC54-45D2-83FF-3133273D30B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1414,7 @@
         <xdr:cNvPr id="2" name="Imagen 22" descr="LOGO-ICBF">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838A34DC-DC54-45D2-83FF-3133273D30B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1493,165 @@
         <xdr:cNvPr id="2" name="Imagen 22" descr="LOGO-ICBF">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838A34DC-DC54-45D2-83FF-3133273D30B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="171450" y="219075"/>
+          <a:ext cx="695325" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 22" descr="LOGO-ICBF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83F097EA-6235-4B51-992E-D4AED8AD3AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="171450" y="219075"/>
+          <a:ext cx="695325" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 22" descr="LOGO-ICBF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31DB02E-B3FE-486D-B78D-9CB82F0B9E6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,11 +1972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A71" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD89"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,1009 +1990,1316 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58">
-        <v>42726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="46" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
+    </row>
+    <row r="11" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="23">
+        <v>16</v>
+      </c>
+      <c r="F11" s="20">
+        <v>13801.001199999999</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" ref="G11:G26" si="0">+F11*E11</f>
+        <v>220816.01919999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23">
+        <v>35</v>
+      </c>
+      <c r="E12" s="18">
         <v>16</v>
       </c>
-      <c r="F12" s="20">
-        <v>13801.001199999999</v>
+      <c r="F12" s="19">
+        <v>5163.0054</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G27" si="0">+F12*E12</f>
-        <v>220816.01919999998</v>
+        <f t="shared" si="0"/>
+        <v>82608.0864</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="18">
+        <v>36</v>
+      </c>
+      <c r="E13" s="23">
         <v>16</v>
       </c>
-      <c r="F13" s="19">
-        <v>5163.0054</v>
+      <c r="F13" s="20">
+        <v>32098.000899999999</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>82608.0864</v>
+        <v>513568.01439999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E14" s="23">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F14" s="20">
-        <v>32098.000899999999</v>
+        <v>50318.995300000002</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>513568.01439999999</v>
+        <v>402551.96240000002</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E15" s="23">
         <v>8</v>
       </c>
       <c r="F15" s="20">
-        <v>50318.995300000002</v>
+        <v>24889.004700000001</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>402551.96240000002</v>
+        <v>199112.03760000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="23">
-        <v>8</v>
-      </c>
-      <c r="F16" s="20">
-        <v>24889.004700000001</v>
+        <v>38</v>
+      </c>
+      <c r="E16" s="22">
+        <v>9</v>
+      </c>
+      <c r="F16" s="21">
+        <v>16036.999299999999</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>199112.03760000001</v>
+        <v>144332.99369999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="22">
-        <v>9</v>
-      </c>
-      <c r="F17" s="21">
-        <v>16036.999299999999</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="23">
+        <v>8</v>
+      </c>
+      <c r="F17" s="20">
+        <v>22534.994300000002</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>144332.99369999999</v>
+        <v>180279.95440000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E18" s="23">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F18" s="20">
-        <v>22534.994300000002</v>
+        <v>15393.994699999999</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>180279.95440000002</v>
+        <v>261697.9099</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E19" s="23">
         <v>17</v>
       </c>
       <c r="F19" s="20">
-        <v>15393.994699999999</v>
+        <v>109170.005</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>261697.9099</v>
+        <v>1855890.085</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E20" s="23">
         <v>17</v>
       </c>
       <c r="F20" s="20">
-        <v>109170.005</v>
+        <v>19148.004400000002</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>1855890.085</v>
+        <v>325516.0748</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E21" s="23">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F21" s="20">
-        <v>19148.004400000002</v>
+        <v>127806.9996</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>325516.0748</v>
+        <v>255613.99919999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E22" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="20">
-        <v>127806.9996</v>
+        <v>186734.00269999998</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>255613.99919999999</v>
+        <v>186734.00269999998</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E23" s="23">
         <v>1</v>
       </c>
       <c r="F23" s="20">
-        <v>186734.00269999998</v>
+        <v>187300.0024</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>186734.00269999998</v>
+        <v>187300.0024</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E24" s="23">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F24" s="20">
-        <v>187300.0024</v>
+        <v>89033.003499999992</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>187300.0024</v>
+        <v>1424528.0559999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E25" s="23">
         <v>16</v>
       </c>
       <c r="F25" s="20">
-        <v>89033.003499999992</v>
+        <v>68118.003799999991</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>1424528.0559999999</v>
+        <v>1089888.0607999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E26" s="23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" s="20">
-        <v>68118.003799999991</v>
+        <v>110229.9975</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>1089888.0607999999</v>
+        <v>1873909.9575</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="F27" s="20">
+        <v>73191.997199999998</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" ref="G27:G73" si="1">+F27*E27</f>
+        <v>146383.9944</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="23">
+        <v>8</v>
+      </c>
+      <c r="F28" s="20">
+        <v>27790.998199999998</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="1"/>
+        <v>222327.98559999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="F27" s="20">
-        <v>110229.9975</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="0"/>
-        <v>1873909.9575</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="23">
-        <v>2</v>
-      </c>
-      <c r="F28" s="20">
-        <v>73191.997199999998</v>
-      </c>
-      <c r="G28" s="9">
-        <f t="shared" ref="G28:G74" si="1">+F28*E28</f>
-        <v>146383.9944</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E29" s="23">
         <v>8</v>
       </c>
       <c r="F29" s="20">
-        <v>27790.998199999998</v>
+        <v>117911.99490000001</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="1"/>
-        <v>222327.98559999999</v>
+        <v>943295.95920000004</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E30" s="23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F30" s="20">
-        <v>117911.99490000001</v>
+        <v>854800.00269999995</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="1"/>
-        <v>943295.95920000004</v>
+        <v>1709600.0053999999</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E31" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="20">
-        <v>854800.00269999995</v>
+        <v>1807702.9984999998</v>
       </c>
       <c r="G31" s="9">
         <f t="shared" si="1"/>
-        <v>1709600.0053999999</v>
+        <v>1807702.9984999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E32" s="23">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F32" s="20">
-        <v>1807702.9984999998</v>
+        <v>67567.997700000007</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="1"/>
-        <v>1807702.9984999998</v>
+        <v>608111.97930000001</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E33" s="23">
         <v>9</v>
       </c>
       <c r="F33" s="20">
-        <v>67567.997700000007</v>
+        <v>59665.005400000002</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>608111.97930000001</v>
+        <v>536985.04859999998</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="E34" s="23">
         <v>9</v>
       </c>
       <c r="F34" s="20">
-        <v>59665.005400000002</v>
+        <v>71629.003599999996</v>
       </c>
       <c r="G34" s="9">
         <f t="shared" si="1"/>
-        <v>536985.04859999998</v>
+        <v>644661.03239999991</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D35" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E35" s="23">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F35" s="20">
-        <v>71629.003599999996</v>
+        <v>468648.00149999995</v>
       </c>
       <c r="G35" s="9">
         <f t="shared" si="1"/>
-        <v>644661.03239999991</v>
+        <v>937296.00299999991</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D36" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E36" s="23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F36" s="20">
-        <v>468648.00149999995</v>
+        <v>29533.003500000003</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="1"/>
-        <v>937296.00299999991</v>
+        <v>236264.02800000002</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D37" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E37" s="23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F37" s="20">
-        <v>29533.003500000003</v>
+        <v>42561.004500000003</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="1"/>
-        <v>236264.02800000002</v>
+        <v>85122.009000000005</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D38" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E38" s="23">
         <v>2</v>
       </c>
       <c r="F38" s="20">
-        <v>42561.004500000003</v>
+        <v>32559.994599999998</v>
       </c>
       <c r="G38" s="9">
         <f t="shared" si="1"/>
-        <v>85122.009000000005</v>
+        <v>65119.989199999996</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D39" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E39" s="23">
         <v>2</v>
       </c>
       <c r="F39" s="20">
-        <v>32559.994599999998</v>
+        <v>7570.9942000000001</v>
       </c>
       <c r="G39" s="9">
         <f t="shared" si="1"/>
-        <v>65119.989199999996</v>
+        <v>15141.9884</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E40" s="23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F40" s="20">
-        <v>7570.9942000000001</v>
+        <v>23955.997100000001</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="1"/>
-        <v>15141.9884</v>
+        <v>239559.97100000002</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D41" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E41" s="23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F41" s="20">
-        <v>23955.997100000001</v>
+        <v>49550.005400000002</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="1"/>
-        <v>239559.97100000002</v>
+        <v>49550.005400000002</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D42" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E42" s="23">
         <v>1</v>
       </c>
       <c r="F42" s="20">
-        <v>49550.005400000002</v>
+        <v>22758.999899999999</v>
       </c>
       <c r="G42" s="9">
         <f t="shared" si="1"/>
-        <v>49550.005400000002</v>
+        <v>22758.999899999999</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D43" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E43" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" s="20">
-        <v>22758.999899999999</v>
+        <v>41584.0026</v>
       </c>
       <c r="G43" s="9">
         <f t="shared" si="1"/>
-        <v>22758.999899999999</v>
+        <v>166336.0104</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D44" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E44" s="23">
         <v>4</v>
       </c>
       <c r="F44" s="20">
-        <v>41584.0026</v>
+        <v>25610.001899999999</v>
       </c>
       <c r="G44" s="9">
         <f t="shared" si="1"/>
-        <v>166336.0104</v>
+        <v>102440.0076</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D45" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E45" s="23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F45" s="20">
-        <v>25610.001899999999</v>
+        <v>7645.9998999999998</v>
       </c>
       <c r="G45" s="9">
         <f t="shared" si="1"/>
-        <v>102440.0076</v>
+        <v>122335.9984</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D46" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E46" s="23">
         <v>16</v>
       </c>
       <c r="F46" s="20">
-        <v>7645.9998999999998</v>
+        <v>4634.0028000000002</v>
       </c>
       <c r="G46" s="9">
         <f t="shared" si="1"/>
-        <v>122335.9984</v>
+        <v>74144.044800000003</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="6" t="s">
-        <v>40</v>
+      <c r="A47" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="E47" s="23">
         <v>16</v>
       </c>
       <c r="F47" s="20">
-        <v>4634.0028000000002</v>
+        <v>20608.003500000003</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="1"/>
-        <v>74144.044800000003</v>
+        <v>329728.05600000004</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="12"/>
+      <c r="A48" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D48" s="10" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E48" s="23">
         <v>16</v>
       </c>
       <c r="F48" s="20">
-        <v>20608.003500000003</v>
+        <v>5712</v>
       </c>
       <c r="G48" s="9">
         <f t="shared" si="1"/>
-        <v>329728.05600000004</v>
+        <v>91392</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="12"/>
+      <c r="A49" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D49" s="10" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E49" s="23">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F49" s="20">
-        <v>5712</v>
+        <v>2982.9967999999999</v>
       </c>
       <c r="G49" s="9">
         <f t="shared" si="1"/>
-        <v>91392</v>
+        <v>26846.9712</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="12"/>
+      <c r="A50" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D50" s="10" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E50" s="23">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F50" s="20">
-        <v>2982.9967999999999</v>
+        <v>11247.999</v>
       </c>
       <c r="G50" s="9">
         <f t="shared" si="1"/>
-        <v>26846.9712</v>
+        <v>179967.984</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="12"/>
+      <c r="A51" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D51" s="10" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E51" s="23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F51" s="20">
-        <v>11247.999</v>
+        <v>11683.003499999999</v>
       </c>
       <c r="G51" s="9">
         <f t="shared" si="1"/>
-        <v>179967.984</v>
+        <v>23366.006999999998</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D52" s="10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E52" s="23">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F52" s="20">
-        <v>11683.003499999999</v>
+        <v>342742.00309999997</v>
       </c>
       <c r="G52" s="9">
         <f t="shared" si="1"/>
-        <v>23366.006999999998</v>
+        <v>5826614.0526999999</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="10" t="s">
-        <v>57</v>
+      <c r="A53" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E53" s="23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F53" s="20">
-        <v>342742.00309999997</v>
+        <v>18053.002100000002</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="1"/>
-        <v>5826614.0526999999</v>
+        <v>144424.01680000001</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D54" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E54" s="23">
         <v>8</v>
       </c>
       <c r="F54" s="20">
-        <v>18053.002100000002</v>
+        <v>89190.000200000009</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" si="1"/>
-        <v>144424.01680000001</v>
+        <v>713520.00160000008</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="6" t="s">
-        <v>76</v>
+      <c r="A55" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E55" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55" s="20">
-        <v>89190.000200000009</v>
+        <v>23617.001800000002</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="1"/>
-        <v>713520.00160000008</v>
+        <v>212553.01620000001</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D56" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E56" s="23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="20">
-        <v>23617.001800000002</v>
+        <v>34334.998599999999</v>
       </c>
       <c r="G56" s="9">
         <f t="shared" si="1"/>
-        <v>212553.01620000001</v>
+        <v>274679.98879999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D57" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E57" s="23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F57" s="20">
-        <v>34334.998599999999</v>
+        <v>100732.0006</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="1"/>
-        <v>274679.98879999999</v>
+        <v>201464.0012</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D58" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E58" s="23">
         <v>2</v>
       </c>
       <c r="F58" s="20">
-        <v>100732.0006</v>
+        <v>202000.00099999999</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="1"/>
-        <v>201464.0012</v>
+        <v>404000.00199999998</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D59" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E59" s="23">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F59" s="20">
-        <v>202000.00099999999</v>
+        <v>28356.997900000002</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="1"/>
-        <v>404000.00199999998</v>
+        <v>907423.93280000007</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="10" t="s">
-        <v>66</v>
+      <c r="A60" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E60" s="23">
         <v>32</v>
@@ -2804,306 +3313,375 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D61" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E61" s="23">
         <v>32</v>
       </c>
       <c r="F61" s="20">
-        <v>28356.997900000002</v>
+        <v>28619.999799999998</v>
       </c>
       <c r="G61" s="9">
         <f t="shared" si="1"/>
-        <v>907423.93280000007</v>
+        <v>915839.99359999993</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="6" t="s">
-        <v>83</v>
+      <c r="A62" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="E62" s="23">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F62" s="20">
-        <v>28619.999799999998</v>
+        <v>21693.997500000001</v>
       </c>
       <c r="G62" s="9">
         <f t="shared" si="1"/>
-        <v>915839.99359999993</v>
+        <v>368797.95750000002</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D63" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E63" s="23">
         <v>17</v>
       </c>
       <c r="F63" s="20">
-        <v>21693.997500000001</v>
+        <v>25173.997799999997</v>
       </c>
       <c r="G63" s="9">
         <f t="shared" si="1"/>
-        <v>368797.95750000002</v>
+        <v>427957.96259999997</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D64" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E64" s="23">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F64" s="20">
-        <v>25173.997799999997</v>
+        <v>2313600.9988000002</v>
       </c>
       <c r="G64" s="9">
         <f t="shared" si="1"/>
-        <v>427957.96259999997</v>
+        <v>2313600.9988000002</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D65" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E65" s="23">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F65" s="20">
-        <v>2313600.9988000002</v>
+        <v>50546.999300000003</v>
       </c>
       <c r="G65" s="9">
         <f t="shared" si="1"/>
-        <v>2313600.9988000002</v>
+        <v>808751.98880000005</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="12"/>
+      <c r="A66" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D66" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E66" s="23">
         <v>16</v>
       </c>
       <c r="F66" s="20">
-        <v>50546.999300000003</v>
+        <v>6390.0025000000005</v>
       </c>
       <c r="G66" s="9">
         <f t="shared" si="1"/>
-        <v>808751.98880000005</v>
+        <v>102240.04000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="12"/>
+      <c r="A67" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D67" s="10" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E67" s="23">
         <v>16</v>
       </c>
       <c r="F67" s="20">
-        <v>6390.0025000000005</v>
+        <v>8089.0011999999997</v>
       </c>
       <c r="G67" s="9">
         <f t="shared" si="1"/>
-        <v>102240.04000000001</v>
+        <v>129424.0192</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="12"/>
+      <c r="A68" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D68" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E68" s="23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F68" s="20">
-        <v>8089.0011999999997</v>
+        <v>34396.997600000002</v>
       </c>
       <c r="G68" s="9">
         <f t="shared" si="1"/>
-        <v>129424.0192</v>
+        <v>584748.95920000004</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="12"/>
+      <c r="A69" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D69" s="10" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E69" s="23">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F69" s="20">
-        <v>34396.997600000002</v>
+        <v>18704.003499999999</v>
       </c>
       <c r="G69" s="9">
         <f t="shared" si="1"/>
-        <v>584748.95920000004</v>
+        <v>448896.08399999997</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="12"/>
+      <c r="A70" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D70" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E70" s="23">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F70" s="20">
-        <v>18704.003499999999</v>
+        <v>17358.9941</v>
       </c>
       <c r="G70" s="9">
         <f t="shared" si="1"/>
-        <v>448896.08399999997</v>
+        <v>277743.9056</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="12"/>
+      <c r="A71" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D71" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E71" s="23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F71" s="20">
-        <v>17358.9941</v>
+        <v>100170.99889999999</v>
       </c>
       <c r="G71" s="9">
         <f t="shared" si="1"/>
-        <v>277743.9056</v>
+        <v>1702906.9812999999</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="10" t="s">
-        <v>80</v>
+      <c r="A72" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E72" s="23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F72" s="20">
-        <v>100170.99889999999</v>
+        <v>408378.00009999995</v>
       </c>
       <c r="G72" s="9">
         <f t="shared" si="1"/>
-        <v>1702906.9812999999</v>
+        <v>3267024.0007999996</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="12"/>
+      <c r="A73" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D73" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E73" s="23">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F73" s="20">
-        <v>408378.00009999995</v>
+        <v>91712.002900000007</v>
       </c>
       <c r="G73" s="9">
         <f t="shared" si="1"/>
-        <v>3267024.0007999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E74" s="23">
-        <v>16</v>
-      </c>
-      <c r="F74" s="20">
-        <v>91712.002900000007</v>
-      </c>
-      <c r="G74" s="9">
-        <f t="shared" si="1"/>
         <v>1467392.0464000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="11">
-        <f>SUM(G12:G74)</f>
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="11">
+        <f>SUM(G11:G73)</f>
         <v>40998214.175799996</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="50"/>
-    </row>
-    <row r="78" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="47"/>
-    </row>
-    <row r="79" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-    </row>
-    <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="50"/>
+    </row>
+    <row r="77" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+    </row>
+    <row r="78" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+    </row>
+    <row r="79" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="A77:G79"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -3114,10 +3692,8 @@
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A78:G79"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A74:F74"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3130,11 +3706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,350 +3724,402 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58">
-        <v>42726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="46" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="28">
+        <v>77</v>
+      </c>
+      <c r="F11" s="7">
+        <v>125016.64</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" ref="G11:G18" si="0">+F11*E11</f>
+        <v>9626281.2799999993</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E12" s="28">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7">
-        <v>125016.64</v>
+        <v>23919</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" ref="G12:G19" si="0">+F12*E12</f>
-        <v>9626281.2799999993</v>
+        <f t="shared" si="0"/>
+        <v>5525289</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="28">
-        <v>231</v>
-      </c>
-      <c r="F13" s="7">
-        <v>23919</v>
+      <c r="A13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="36">
+        <v>2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>291883.2</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>5525289</v>
+        <v>583766.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="A14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="28">
         <v>2</v>
       </c>
-      <c r="F14" s="25">
-        <v>291883.2</v>
+      <c r="F14" s="26">
+        <v>45502.625</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>583766.4</v>
+        <v>91005.25</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D15" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E15" s="28">
-        <v>2</v>
-      </c>
-      <c r="F15" s="26">
-        <v>45502.625</v>
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
+        <v>566559</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>91005.25</v>
+        <v>4532472</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D16" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E16" s="28">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7">
-        <v>566559</v>
+        <v>3</v>
+      </c>
+      <c r="F16" s="26">
+        <v>541772.04969999997</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>4532472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+        <v>1625316.1491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D17" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E17" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="26">
-        <v>541772.04969999997</v>
+        <v>323531.25</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
-        <v>1625316.1491</v>
+        <v>323531.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D18" s="15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E18" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>323531.25</v>
+        <v>232430.514</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="0"/>
-        <v>323531.25</v>
+        <v>697291.54200000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15" t="s">
-        <v>92</v>
+      <c r="A19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="E19" s="28">
         <v>3</v>
       </c>
       <c r="F19" s="26">
-        <v>232430.514</v>
+        <v>516696.45299999998</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="0"/>
-        <v>697291.54200000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="28">
-        <v>3</v>
-      </c>
-      <c r="F20" s="26">
-        <v>516696.45299999998</v>
-      </c>
-      <c r="G20" s="9">
-        <f>+F20*E20</f>
+        <f>+F19*E19</f>
         <v>1550089.3589999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="11">
-        <f>SUM(G12:G20)</f>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="11">
+        <f>SUM(G11:G19)</f>
         <v>24555042.230099998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+    </row>
+    <row r="24" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="A23:G25"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -3499,13 +4127,11 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
-    <mergeCell ref="A24:G25"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3518,11 +4144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3536,393 +4162,455 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58">
-        <v>42726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="46" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="30">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
+      <c r="F11" s="31">
+        <v>109900</v>
+      </c>
+      <c r="G11" s="34">
+        <f>+E11*F11</f>
+        <v>549500</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" s="29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E12" s="30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="31">
-        <v>109900</v>
+        <v>526900</v>
       </c>
       <c r="G12" s="34">
-        <f>+E12*F12</f>
-        <v>549500</v>
+        <f t="shared" ref="G12:G21" si="0">+E12*F12</f>
+        <v>526900</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D13" s="29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E13" s="30">
         <v>1</v>
       </c>
       <c r="F13" s="31">
-        <v>526900</v>
+        <v>169900</v>
       </c>
       <c r="G13" s="34">
-        <f t="shared" ref="G13:G22" si="0">+E13*F13</f>
-        <v>526900</v>
+        <f t="shared" si="0"/>
+        <v>169900</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" s="29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E14" s="30">
         <v>1</v>
       </c>
       <c r="F14" s="31">
-        <v>169900</v>
+        <v>49899</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="0"/>
-        <v>169900</v>
+        <v>49899</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D15" s="29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E15" s="30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15" s="31">
-        <v>49899</v>
+        <v>399899</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="0"/>
-        <v>49899</v>
+        <v>2399394</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D16" s="29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E16" s="30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F16" s="31">
-        <v>399899</v>
+        <v>329899</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="0"/>
-        <v>2399394</v>
+        <v>329899</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D17" s="29" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E17" s="30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="31">
-        <v>329899</v>
+        <v>122900</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="0"/>
-        <v>329899</v>
+        <v>368700</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D18" s="29" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E18" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="31">
-        <v>122900</v>
+        <v>969899</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="0"/>
-        <v>368700</v>
+        <v>969899</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D19" s="29" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E19" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="31">
-        <v>969899</v>
+        <v>24900</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="0"/>
-        <v>969899</v>
+        <v>49800</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="30">
+      <c r="A20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="17">
         <v>2</v>
       </c>
       <c r="F20" s="31">
-        <v>24900</v>
+        <v>2797.69</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" si="0"/>
-        <v>49800</v>
+        <v>5595.38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="24" t="s">
-        <v>103</v>
+      <c r="A21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="E21" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="31">
-        <v>2797.69</v>
+        <v>56899.85</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="0"/>
-        <v>5595.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="17">
-        <v>5</v>
-      </c>
-      <c r="F22" s="31">
-        <v>56899.85</v>
-      </c>
-      <c r="G22" s="34">
-        <f t="shared" si="0"/>
         <v>284499.25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="11">
-        <f>SUM(G12:G22)</f>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="11">
+        <f>SUM(G11:G21)</f>
         <v>5703985.6299999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+    </row>
+    <row r="26" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A26:G27"/>
+  <mergeCells count="13">
+    <mergeCell ref="A25:G27"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -3942,11 +4630,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3960,447 +4648,527 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58">
-        <v>42726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="46" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="30">
+        <v>2</v>
+      </c>
+      <c r="F11" s="31">
+        <v>257397</v>
+      </c>
+      <c r="G11" s="34">
+        <f>+E11*F11</f>
+        <v>514794</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E12" s="30">
         <v>2</v>
       </c>
       <c r="F12" s="31">
-        <v>257397</v>
+        <v>238100</v>
       </c>
       <c r="G12" s="34">
-        <f>+E12*F12</f>
-        <v>514794</v>
+        <f t="shared" ref="G12:G24" si="0">+E12*F12</f>
+        <v>476200</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D13" s="35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E13" s="30">
         <v>2</v>
       </c>
       <c r="F13" s="31">
-        <v>238100</v>
+        <v>25545</v>
       </c>
       <c r="G13" s="34">
-        <f t="shared" ref="G13:G25" si="0">+E13*F13</f>
-        <v>476200</v>
+        <f t="shared" si="0"/>
+        <v>51090</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D14" s="35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E14" s="30">
         <v>2</v>
       </c>
       <c r="F14" s="31">
-        <v>25545</v>
+        <v>44200</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="0"/>
-        <v>51090</v>
+        <v>88400</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D15" s="35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E15" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="31">
-        <v>44200</v>
+        <v>7900</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="0"/>
-        <v>88400</v>
+        <v>23700</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D16" s="35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E16" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="31">
-        <v>7900</v>
+        <v>211047</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="0"/>
-        <v>23700</v>
+        <v>211047</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D17" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E17" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="31">
-        <v>211047</v>
+        <v>139050</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="0"/>
-        <v>211047</v>
+        <v>278100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D18" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E18" s="30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F18" s="31">
-        <v>139050</v>
+        <v>34917</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="0"/>
-        <v>278100</v>
+        <v>244419</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D19" s="35" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E19" s="30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F19" s="31">
-        <v>34917</v>
+        <v>21630</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="0"/>
-        <v>244419</v>
+        <v>43260</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D20" s="35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E20" s="30">
         <v>2</v>
       </c>
       <c r="F20" s="31">
-        <v>21630</v>
+        <v>63242</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" si="0"/>
-        <v>43260</v>
+        <v>126484</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D21" s="35" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E21" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="31">
-        <v>63242</v>
+        <v>62750</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="0"/>
-        <v>126484</v>
+        <v>188250</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D22" s="35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E22" s="30">
         <v>3</v>
       </c>
       <c r="F22" s="31">
-        <v>62750</v>
+        <v>21900</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="0"/>
-        <v>188250</v>
+        <v>65700</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D23" s="35" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E23" s="30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="31">
-        <v>21900</v>
+        <v>12900</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="0"/>
-        <v>65700</v>
+        <v>51600</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="D24" s="35" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E24" s="30">
         <v>4</v>
       </c>
       <c r="F24" s="31">
-        <v>12900</v>
+        <v>45000</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="0"/>
-        <v>51600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="30">
-        <v>4</v>
-      </c>
-      <c r="F25" s="31">
-        <v>45000</v>
-      </c>
-      <c r="G25" s="34">
-        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="11">
-        <f>SUM(G12:G25)</f>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="11">
+        <f>SUM(G11:G24)</f>
         <v>2543044</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-    </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-    </row>
-    <row r="31" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A29:G30"/>
+  <mergeCells count="13">
+    <mergeCell ref="A28:G30"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -4420,11 +5188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,231 +5206,239 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58">
-        <v>42726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="46" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1499000</v>
+      </c>
+      <c r="G11" s="34">
+        <f>+E11*F11</f>
+        <v>1499000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="30">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
       <c r="F12" s="31">
-        <v>1499000</v>
+        <v>164000</v>
       </c>
       <c r="G12" s="34">
         <f>+E12*F12</f>
-        <v>1499000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="30">
-        <v>10</v>
-      </c>
-      <c r="F13" s="31">
-        <v>164000</v>
-      </c>
-      <c r="G13" s="34">
-        <f>+E13*F13</f>
         <v>1640000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="11">
-        <f>SUM(G12:G13)</f>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="11">
+        <f>SUM(G11:G12)</f>
         <v>3139000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-    </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A17:G18"/>
+  <mergeCells count="13">
+    <mergeCell ref="A16:G18"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A15:G15"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -4682,11 +5458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4700,213 +5476,215 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="56" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="58">
-        <v>42726</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="46" t="s">
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31">
+        <v>2404559</v>
+      </c>
+      <c r="G11" s="33">
+        <f>+E11*F11</f>
+        <v>2404559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="11">
+        <f>SUM(G11)</f>
+        <v>2404559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="31">
-        <v>2404559</v>
-      </c>
-      <c r="G12" s="33">
-        <f>+E12*F12</f>
-        <v>2404559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="11">
-        <f>SUM(G12)</f>
-        <v>2404559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+    </row>
+    <row r="16" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A16:G17"/>
+  <mergeCells count="13">
+    <mergeCell ref="A15:G17"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -4923,4 +5701,496 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84059D80-D49B-4BAC-8C76-9A1DDCA7B4EB}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="30">
+        <v>8</v>
+      </c>
+      <c r="F11" s="37">
+        <v>22550.52</v>
+      </c>
+      <c r="G11" s="38">
+        <f>+E11*F11</f>
+        <v>180404.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="11">
+        <f>SUM(G11:G11)</f>
+        <v>180404.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+    </row>
+    <row r="16" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:E6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="A15:G17"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;RF2 PR1 MPA1 P5 Versión 1.0</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49619F91-C463-49F0-8543-B00AF16D353C}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55"/>
+      <c r="B1" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="61">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="60"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="30">
+        <v>280</v>
+      </c>
+      <c r="F11" s="37">
+        <v>76872.81</v>
+      </c>
+      <c r="G11" s="38">
+        <f>+E11*F11</f>
+        <v>21524386.800000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="11">
+        <f>SUM(G11:G11)</f>
+        <v>21524386.800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+    </row>
+    <row r="16" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B1:E6"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="A15:G17"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;RF2 PR1 MPA1 P5 Versión 1.0</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/5.GestionDotaciones/DAPRE/CDI-Apartadó/IngresoInventario/PlanAsignacionApartado.xlsx
+++ b/5.GestionDotaciones/DAPRE/CDI-Apartadó/IngresoInventario/PlanAsignacionApartado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\5.GestionDotaciones\DAPRE\CDI-Apartadó\IngresoInventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F673E32-D512-48F8-BEC9-8430DEED956B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358A5C8C-524E-4A96-B093-2BEBC4291469}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URANIA" sheetId="1" r:id="rId1"/>
@@ -988,6 +988,36 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1029,36 +1059,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1973,9 +1973,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A68" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
@@ -1991,103 +1994,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="47">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3625,14 +3628,14 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="s">
+      <c r="A74" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="52"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="11">
         <f>SUM(G11:G73)</f>
         <v>40998214.175799996</v>
@@ -3640,44 +3643,44 @@
     </row>
     <row r="75" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="60"/>
     </row>
     <row r="77" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="53"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
     </row>
     <row r="78" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
     </row>
     <row r="79" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3697,10 +3700,13 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="63" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RF2 PR1 MPA1 P5 Versión 1.0</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="46" max="6" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3709,7 +3715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
@@ -3725,103 +3731,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="47">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4063,14 +4069,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="11">
         <f>SUM(G11:G19)</f>
         <v>24555042.230099998</v>
@@ -4078,44 +4084,44 @@
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4135,7 +4141,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="66" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RF2 PR1 MPA1 P5 Versión 1.0</oddFooter>
   </headerFooter>
@@ -4147,7 +4153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
@@ -4163,103 +4169,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="47">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -4549,14 +4555,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="11">
         <f>SUM(G11:G21)</f>
         <v>5703985.6299999999</v>
@@ -4564,53 +4570,47 @@
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A25:G27"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -4618,10 +4618,16 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
+    <mergeCell ref="A25:G27"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="55" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RF2 PR1 MPA1 P5 Versión 1.0</oddFooter>
   </headerFooter>
@@ -4631,9 +4637,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
@@ -4649,103 +4658,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="47">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5107,14 +5116,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="11">
         <f>SUM(G11:G24)</f>
         <v>2543044</v>
@@ -5122,53 +5131,47 @@
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A28:G30"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -5176,10 +5179,16 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
+    <mergeCell ref="A28:G30"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RF2 PR1 MPA1 P5 Versión 1.0</oddFooter>
   </headerFooter>
@@ -5191,7 +5200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
@@ -5207,103 +5216,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="47">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5377,14 +5386,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="11">
         <f>SUM(G11:G12)</f>
         <v>3139000</v>
@@ -5392,53 +5401,47 @@
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
     </row>
     <row r="17" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:G18"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A15:G15"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -5446,6 +5449,12 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
+    <mergeCell ref="A16:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5477,103 +5486,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="47">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5623,14 +5632,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="11">
         <f>SUM(G11)</f>
         <v>2404559</v>
@@ -5638,53 +5647,47 @@
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:G17"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -5692,6 +5695,12 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
+    <mergeCell ref="A15:G17"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5723,103 +5732,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="47">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -5869,14 +5878,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="11">
         <f>SUM(G11:G11)</f>
         <v>180404.16</v>
@@ -5884,47 +5893,53 @@
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:G17"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -5932,12 +5947,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
-    <mergeCell ref="A15:G17"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5953,7 +5962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49619F91-C463-49F0-8543-B00AF16D353C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:G9"/>
     </sheetView>
   </sheetViews>
@@ -5969,103 +5978,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="47">
         <v>43350</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="62" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="60"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -6115,14 +6124,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="11">
         <f>SUM(G11:G11)</f>
         <v>21524386.800000001</v>
@@ -6130,47 +6139,53 @@
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:G17"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A1:A6"/>
     <mergeCell ref="B1:E6"/>
     <mergeCell ref="F1:F2"/>
@@ -6178,12 +6193,6 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F5:G6"/>
-    <mergeCell ref="A15:G17"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
